--- a/classfiers/sota/corelation/corelation-metrics/correlations-bloated.xlsx
+++ b/classfiers/sota/corelation/corelation-metrics/correlations-bloated.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2911576691801517</v>
+        <v>0.2935613534734879</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1771660692934542</v>
+        <v>0.1817627909878214</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1750152137924323</v>
+        <v>0.180092456534152</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09059722749081822</v>
+        <v>-0.08458629787128065</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.360401371645573</v>
+        <v>0.3626072158681293</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.176029886927012</v>
+        <v>0.1824010121685625</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2501024429761968</v>
+        <v>0.253831231929695</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1283619205206716</v>
+        <v>-0.1197185879503913</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07765285381841955</v>
+        <v>0.0747844835400502</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3511742023854986</v>
+        <v>0.3535285628932395</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1163976008368203</v>
+        <v>0.1132197211169543</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3737570946810508</v>
+        <v>0.3758848757781513</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1680042009224167</v>
+        <v>0.1770438716406008</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1303069099304995</v>
+        <v>-0.1305735598048511</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1254155217621734</v>
+        <v>-0.125172461249703</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1449063928699233</v>
+        <v>-0.1446621475980394</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.141509551529466</v>
+        <v>-0.1409201580160099</v>
       </c>
     </row>
   </sheetData>
